--- a/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
+++ b/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\airline_ticket_print\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\airline_ticket_print\backend\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A4A187-F9C2-479F-B6A2-8C4DF03C05E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8CC73-C615-4241-A098-C2ED9BFFA4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1070" yWindow="2580" windowWidth="30910" windowHeight="18010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1630" windowWidth="29680" windowHeight="18010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
   <si>
     <t>HK</t>
   </si>
@@ -44,136 +44,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PAX name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNR Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travel Agency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN1 Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN1 Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01DEC2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23DEC2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOMEN/MDRASHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEE/TAWOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHALEM/MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BISWES/ UJJAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VICTORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN1-Dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN1-Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2-Dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2 Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2 Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2-Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT/LBR/CHD/INF</t>
+  </si>
+  <si>
     <t>RSVN cfmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADT/LBR/CHD/INF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAX name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>emd1 (Extra RQ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PNR Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Travel Agency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN1 Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN1 Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01DEC2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23DEC2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOMEN/MDRASHED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEE/TAWOON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHALEM/MD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>BD HOUSE</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>BISWES/ UJJAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VICTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPEREME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN1-Dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN1-Arr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2-Dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2 Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2 Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2-Arr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/808682</t>
+  </si>
+  <si>
+    <t>G/808683</t>
+  </si>
+  <si>
+    <t>G/808684</t>
+  </si>
+  <si>
+    <t>G/808685</t>
+  </si>
+  <si>
+    <t>G/808686</t>
+  </si>
+  <si>
+    <t>SAFOR</t>
+  </si>
+  <si>
+    <t>Zaman</t>
+  </si>
+  <si>
+    <t>FERDOUS/ IBNE</t>
+  </si>
+  <si>
+    <t>SHEHAB/ MD JASHIM UDDIN</t>
+  </si>
+  <si>
+    <t>KOTHA/ TABASSUM HAQUE</t>
+  </si>
+  <si>
+    <t>SUPREM</t>
   </si>
 </sst>
 </file>
@@ -584,7 +618,7 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -609,58 +643,58 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -671,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -683,25 +717,25 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
@@ -716,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -728,44 +762,30 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4">
@@ -775,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -787,44 +807,30 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
@@ -834,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -846,47 +852,339 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>39</v>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="N10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="N11" s="2"/>

--- a/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
+++ b/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\airline_ticket_print\backend\bak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\airline-ticket-printing-system\backend\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8CC73-C615-4241-A098-C2ED9BFFA4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51680178-7136-4888-BCD6-166EE2ED6810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1630" windowWidth="29680" windowHeight="18010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>HK</t>
   </si>
@@ -28,12 +28,6 @@
     <t/>
   </si>
   <si>
-    <t>G/394814</t>
-  </si>
-  <si>
-    <t>G/552058</t>
-  </si>
-  <si>
     <t>G/752927</t>
   </si>
   <si>
@@ -72,109 +66,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOMEN/MDRASHED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEE/TAWOON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SHALEM/MD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ADT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN1-Dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN1-Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2-Dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2 Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2 Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTN2-Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT/LBR/CHD/INF</t>
+  </si>
+  <si>
+    <t>RSVN cfmd</t>
+  </si>
+  <si>
+    <t>emd1 (Extra RQ)</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>BD HOUSE</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
     <t>BISWES/ UJJAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VICTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN1-Dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN1-Arr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2-Dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2 Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2 Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTN2-Arr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADT/LBR/CHD/INF</t>
-  </si>
-  <si>
-    <t>RSVN cfmd</t>
-  </si>
-  <si>
-    <t>emd1 (Extra RQ)</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>BD HOUSE</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>BISWES/ UJJAL</t>
   </si>
   <si>
     <t>G/808682</t>
@@ -186,18 +160,9 @@
     <t>G/808684</t>
   </si>
   <si>
-    <t>G/808685</t>
-  </si>
-  <si>
-    <t>G/808686</t>
-  </si>
-  <si>
     <t>SAFOR</t>
   </si>
   <si>
-    <t>Zaman</t>
-  </si>
-  <si>
     <t>FERDOUS/ IBNE</t>
   </si>
   <si>
@@ -208,6 +173,9 @@
   </si>
   <si>
     <t>SUPREM</t>
+  </si>
+  <si>
+    <t>01DEC2025</t>
   </si>
 </sst>
 </file>
@@ -617,125 +585,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
@@ -744,447 +712,269 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="11" spans="1:19">
       <c r="N11" s="2"/>

--- a/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
+++ b/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\airline-ticket-printing-system\backend\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51680178-7136-4888-BCD6-166EE2ED6810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4FE3E2-9AEB-4220-A943-A945EFFA7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="705" windowWidth="21600" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +172,9 @@
   </si>
   <si>
     <t>01DEC2025</t>
+  </si>
+  <si>
+    <t>BOS</t>
   </si>
 </sst>
 </file>
@@ -585,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -611,16 +610,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>6</v>
@@ -629,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>8</v>
@@ -638,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -647,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -673,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -685,25 +684,25 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
@@ -718,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -730,43 +729,43 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -777,55 +776,55 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
         <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -836,55 +835,55 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -898,52 +897,52 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
         <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19">

--- a/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
+++ b/backend/bak/e-Ticket Issue Form Data Record (251128).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\airline-ticket-printing-system\backend\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4FE3E2-9AEB-4220-A943-A945EFFA7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A58B21-274B-42EE-940A-E653FAE00D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5955" yWindow="705" windowWidth="21600" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>HK</t>
   </si>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,9 +149,6 @@
     <t>G/808683</t>
   </si>
   <si>
-    <t>G/808684</t>
-  </si>
-  <si>
     <t>SAFOR</t>
   </si>
   <si>
@@ -163,12 +156,6 @@
   </si>
   <si>
     <t>SHEHAB/ MD JASHIM UDDIN</t>
-  </si>
-  <si>
-    <t>KOTHA/ TABASSUM HAQUE</t>
-  </si>
-  <si>
-    <t>SUPREM</t>
   </si>
   <si>
     <t>01DEC2025</t>
@@ -585,7 +572,7 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -610,16 +597,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>6</v>
@@ -628,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>8</v>
@@ -637,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -646,22 +633,22 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="R1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -672,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -684,25 +671,25 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
@@ -717,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -729,43 +716,43 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -776,55 +763,55 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -835,115 +822,66 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19">
       <c r="I7" s="3"/>
